--- a/RBS.xlsx
+++ b/RBS.xlsx
@@ -1,17 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr/>
+  <bookViews>
+    <workbookView xWindow="840" yWindow="855" windowWidth="13815" windowHeight="3765"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Foglio1" sheetId="1" r:id="rId4"/>
+    <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="23">
   <si>
     <t>rbs e costi</t>
   </si>
@@ -25,21 +28,12 @@
     <t>risorse umane</t>
   </si>
   <si>
-    <t>q=1h,pu=20</t>
-  </si>
-  <si>
     <t>1.02.01.1 Progettazione concettuale DB</t>
   </si>
   <si>
-    <t>q=3h,pu=28</t>
-  </si>
-  <si>
     <t>1.02.01.2 Progettazione logica DB</t>
   </si>
   <si>
-    <t>q=4h,pu=28</t>
-  </si>
-  <si>
     <t>1.02.01.3 Progettazione fisica DB</t>
   </si>
   <si>
@@ -70,9 +64,6 @@
     <t>1.3.4 Implementazione del DB e pagine multimediali in un server web</t>
   </si>
   <si>
-    <t>q=5h,pu=30</t>
-  </si>
-  <si>
     <t>materiali</t>
   </si>
   <si>
@@ -83,68 +74,90 @@
   </si>
   <si>
     <t>q=6h,pu=20</t>
+  </si>
+  <si>
+    <t>q=4h,pu=20</t>
+  </si>
+  <si>
+    <t>q=5h,pu=28</t>
+  </si>
+  <si>
+    <t>q=20h,pu=30</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="4">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
-    <font/>
     <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="5">
-    <border/>
     <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -154,51 +167,64 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="13">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -388,263 +414,269 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="B1:D23"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="59.14"/>
-    <col customWidth="1" min="3" max="3" width="23.86"/>
+    <col min="2" max="2" width="59.140625" customWidth="1"/>
+    <col min="3" max="3" width="23.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="17.25" customHeight="1"/>
-    <row r="2">
+    <row r="1" spans="2:4" ht="17.25" customHeight="1"/>
+    <row r="2" spans="2:4" ht="12.75">
       <c r="B2" s="1"/>
       <c r="C2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="3"/>
     </row>
-    <row r="3">
+    <row r="3" spans="2:4" ht="12.75">
       <c r="B3" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="5">
-        <v>20.0</v>
-      </c>
-    </row>
-    <row r="4">
+      <c r="D3" s="9">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" ht="12.75">
       <c r="B4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="4">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" ht="12.75">
+      <c r="B5" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="4">
-        <v>20.0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="B5" s="6" t="s">
+      <c r="C5" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="10">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" ht="12.75">
+      <c r="B6" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="4">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" ht="12.75">
+      <c r="B7" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5" s="5">
-        <v>84.0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="B6" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="4" t="s">
+      <c r="C7" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="11">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" ht="12.75">
+      <c r="B8" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="4">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" ht="12.75">
+      <c r="B9" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="4">
-        <v>84.0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="B7" s="6" t="s">
+      <c r="C9" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="11">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" ht="12.75">
+      <c r="B10" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D7" s="4">
-        <v>112.0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="B8" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="4" t="s">
+      <c r="D10" s="4">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" ht="12.75">
+      <c r="B11" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="4">
-        <v>112.0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="B9" s="6" t="s">
+      <c r="C11" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" s="11">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" ht="12.75">
+      <c r="B12" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D9" s="4">
-        <v>280.0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="B10" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C10" s="4" t="s">
+      <c r="D12" s="4">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" ht="12.75">
+      <c r="B13" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="4">
-        <v>280.0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="B11" s="6" t="s">
+      <c r="C13" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" s="11">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" ht="12.75">
+      <c r="B14" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="4">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" ht="12.75">
+      <c r="B15" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D11" s="4">
-        <v>40.0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="B12" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C12" s="4" t="s">
+      <c r="C15" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D15" s="11">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" ht="12.75">
+      <c r="B16" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="4">
-        <v>40.0</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="B13" s="4" t="s">
+      <c r="D16" s="4">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" ht="12.75">
+      <c r="B17" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D13" s="4">
-        <v>40.0</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="B14" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D14" s="4">
-        <v>40.0</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="B15" s="4" t="s">
+      <c r="C17" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D17" s="11">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" ht="12.75">
+      <c r="B18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D15" s="4">
-        <v>125.0</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="B16" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C16" s="4" t="s">
+      <c r="D18" s="4">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" ht="12.75">
+      <c r="B19" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D16" s="4">
-        <v>125.0</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="B17" s="4" t="s">
+      <c r="C19" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D19" s="11">
+        <v>10150</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" ht="12.75">
+      <c r="B20" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D20" s="5">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" ht="12.75">
+      <c r="B21" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D17" s="4">
-        <v>200.0</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="B18" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="4" t="s">
+      <c r="C21" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D18" s="4">
-        <v>200.0</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="B19" s="4" t="s">
+      <c r="D21" s="4">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" ht="12.75">
+      <c r="B22" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D19" s="4">
-        <v>10150.0</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="B20" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C20" s="4" t="s">
+      <c r="C22" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D22" s="10">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" ht="12.75">
+      <c r="B23" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D20" s="5">
-        <v>150.0</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="B21" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D21" s="4">
-        <v>10000.0</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="B22" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D22" s="5">
-        <v>120.0</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="B23" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>23</v>
-      </c>
       <c r="D23" s="8">
-        <v>120.0</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>